--- a/biology/Zoologie/Ergilornithidae/Ergilornithidae.xlsx
+++ b/biology/Zoologie/Ergilornithidae/Ergilornithidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ergilornithidae forment une famille éteinte d'oiseaux appartenant à l'ordre des Gruiformes. Ses espèces ont existé entre l'Oligocène et le Pliocène (32 - 5 millions d'années). Leurs restes fossiles ont été trouvés en Asie et en Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré les liens de parenté avec des grues d'aujourd'hui, ces animaux devaient avoir le look très similaire à celle de l'autruche. Cela était dû au fait que les pattes postérieures sont très allongées et incroyablement puissantes, par opposition à ceux des grues existantes. Il n'y avait que deux doigts (comme chez les autruches) et des phalanges sont courtes et aplaties. La perte d'un doigt à l'intérieur et à l'arrière du doigt peut être interprétée comme une adaptation à la course. La taille de ces animaux est comparable à celle des formes les plus grandes de la famille des grues (gruidés).
 </t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les similitudes des Ergilornithidae avec les autruches dans le passé ont conduit plus d'un chercheur à conclure que ces animaux pourraient être étroitement liés. Probablement originaire des Eogruidae, une autre famille de coureurs gruiformes, la famille des Ergilornithidae développe au cours de l'évolution une adaptation à la course.
 </t>
@@ -573,7 +589,9 @@
           <t>Histoire d'évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Proergilornis minor, Oligocène inférieur de la Mongolie intérieure, probablement encore un doigt à l'intérieur rugueuse de la jambe, tandis que dans Ergilornis rapidus (toujours l'Oligocène de la Mongolie intérieure) à l'intérieur du doigt avait complètement disparu, et ne portait qu'une légère tarsometatarso mettent l'accent sur l'articulation où le doigt doit être à l'intérieur.
 Pour Amphipelargus maraghanus (du Miocène au Pliocène) d'Asie occidentale, le relief a disparu et la course à l'adaptation a été semblable à celle de l'autruche d'aujourd'hui. Probablement que cette forme a coexisté avec la première espèce d'autruche dans le Pliocène, et il est possible qu'il était en compétition avec ce dernier qui a conduit à l'extinction du dernier Ergilornithidae. En tout cas, ces deux groupes d'oiseaux sont un merveilleux exemple d'évolution convergente.
@@ -605,7 +623,9 @@
           <t>Les différents genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amphipelargus</t>
         </is>
